--- a/results/java/interviews/interviews.xlsx
+++ b/results/java/interviews/interviews.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamc\Desktop\results\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashort11/research/CodeSize/results/java/interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B0C078-D182-4198-912A-D6D135D93EE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EEBDF2-3148-C743-8E8C-5FA0C62A502E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="12105"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="23980" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interviews" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2737,7 +2745,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3573,22 +3581,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O784"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3658,15 +3666,15 @@
         <v>16.149425287356323</v>
       </c>
       <c r="N2" s="2">
-        <f>_xlfn.STDEV.P(C2:C784)</f>
-        <v>11.242679879948001</v>
+        <f>_xlfn.STDEV.S(C2:C784)</f>
+        <v>11.24986599757529</v>
       </c>
       <c r="O2" s="2">
         <f>N2/SQRT(COUNT(C2:C784))</f>
-        <v>0.40178060081536426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.40203741170819873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3701,15 +3709,15 @@
         <v>66.722860791826307</v>
       </c>
       <c r="N3" s="2">
-        <f>_xlfn.STDEV.P(D2:D784)</f>
-        <v>25.639928870415815</v>
+        <f>_xlfn.STDEV.S(D2:D784)</f>
+        <v>25.656317449187561</v>
       </c>
       <c r="O3" s="2">
         <f>N3/SQRT(COUNT(D2:D784))</f>
-        <v>0.91629630447740862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.91688198450172087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3744,15 +3752,15 @@
         <v>7.9259259259259256</v>
       </c>
       <c r="N4" s="2">
-        <f>_xlfn.STDEV.P(E2:E784)</f>
-        <v>5.5850218986873266</v>
+        <f>_xlfn.STDEV.S(E2:E784)</f>
+        <v>5.5885917436658819</v>
       </c>
       <c r="O4" s="2">
         <f>N4/SQRT(COUNT(E2:E784))</f>
-        <v>0.19959239949754212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.19971997534917335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3787,15 +3795,15 @@
         <v>0.36909323116219667</v>
       </c>
       <c r="N5" s="2">
-        <f>_xlfn.STDEV.P(F2:F784)</f>
-        <v>0.94303391819898141</v>
+        <f>_xlfn.STDEV.S(F2:F784)</f>
+        <v>0.94363668842236781</v>
       </c>
       <c r="O5" s="2">
         <f>N5/SQRT(COUNT(F2:F784))</f>
-        <v>3.3701282815944256E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.3722824066348238E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3815,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3835,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3855,7 +3863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3875,7 +3883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3895,7 +3903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3915,7 +3923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3935,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3955,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3995,7 +4003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -4015,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4035,7 +4043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4075,7 +4083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4095,7 +4103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4115,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -4135,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -4155,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -4175,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -4195,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -4215,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -4235,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -4255,7 +4263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -4275,7 +4283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -4295,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -4315,7 +4323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -4335,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -4355,7 +4363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -4375,7 +4383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -4395,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -4415,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -4435,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -4455,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -4475,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4495,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -4515,7 +4523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -4535,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -4555,7 +4563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -4575,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -4595,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -4615,7 +4623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -4635,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -4675,7 +4683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -4695,7 +4703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -4715,7 +4723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -4735,7 +4743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -4755,7 +4763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -4775,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -4795,7 +4803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -4815,7 +4823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -4835,7 +4843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -4855,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -4875,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -4895,7 +4903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -4915,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -4935,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -4955,7 +4963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -4975,7 +4983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -4995,7 +5003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -5035,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -5055,7 +5063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -5075,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -5115,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -5155,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -5175,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -5195,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -5215,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -5235,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>137</v>
       </c>
@@ -5255,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -5275,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -5295,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -5315,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -5355,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -5375,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -5395,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -5415,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -5435,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -5455,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -5475,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -5495,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>164</v>
       </c>
@@ -5535,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -5555,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>168</v>
       </c>
@@ -5575,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -5595,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>172</v>
       </c>
@@ -5615,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>172</v>
       </c>
@@ -5635,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>175</v>
       </c>
@@ -5655,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>177</v>
       </c>
@@ -5675,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>177</v>
       </c>
@@ -5695,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>177</v>
       </c>
@@ -5715,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>177</v>
       </c>
@@ -5735,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>182</v>
       </c>
@@ -5755,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -5775,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>186</v>
       </c>
@@ -5795,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -5815,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>190</v>
       </c>
@@ -5835,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -5855,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>194</v>
       </c>
@@ -5875,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>196</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>198</v>
       </c>
@@ -5915,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>198</v>
       </c>
@@ -5935,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>201</v>
       </c>
@@ -5955,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>203</v>
       </c>
@@ -5975,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>205</v>
       </c>
@@ -5995,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -6015,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>209</v>
       </c>
@@ -6035,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>211</v>
       </c>
@@ -6055,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>213</v>
       </c>
@@ -6075,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>213</v>
       </c>
@@ -6095,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>213</v>
       </c>
@@ -6115,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>217</v>
       </c>
@@ -6135,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>219</v>
       </c>
@@ -6155,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>219</v>
       </c>
@@ -6175,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -6195,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>223</v>
       </c>
@@ -6215,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>225</v>
       </c>
@@ -6235,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>227</v>
       </c>
@@ -6255,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>229</v>
       </c>
@@ -6275,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>229</v>
       </c>
@@ -6295,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>232</v>
       </c>
@@ -6315,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>234</v>
       </c>
@@ -6335,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>234</v>
       </c>
@@ -6355,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>237</v>
       </c>
@@ -6375,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>239</v>
       </c>
@@ -6395,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>241</v>
       </c>
@@ -6415,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>241</v>
       </c>
@@ -6435,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>244</v>
       </c>
@@ -6455,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>244</v>
       </c>
@@ -6475,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>247</v>
       </c>
@@ -6495,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>249</v>
       </c>
@@ -6515,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -6535,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>252</v>
       </c>
@@ -6555,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -6575,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>255</v>
       </c>
@@ -6595,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>255</v>
       </c>
@@ -6615,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>258</v>
       </c>
@@ -6635,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>260</v>
       </c>
@@ -6655,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>262</v>
       </c>
@@ -6675,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>262</v>
       </c>
@@ -6695,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>265</v>
       </c>
@@ -6715,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>265</v>
       </c>
@@ -6735,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>268</v>
       </c>
@@ -6755,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>270</v>
       </c>
@@ -6775,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -6795,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>274</v>
       </c>
@@ -6815,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>276</v>
       </c>
@@ -6835,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>278</v>
       </c>
@@ -6855,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>279</v>
       </c>
@@ -6875,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>281</v>
       </c>
@@ -6895,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>281</v>
       </c>
@@ -6915,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>281</v>
       </c>
@@ -6935,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>281</v>
       </c>
@@ -6955,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>281</v>
       </c>
@@ -6975,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>281</v>
       </c>
@@ -6995,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>288</v>
       </c>
@@ -7015,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>288</v>
       </c>
@@ -7035,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>288</v>
       </c>
@@ -7055,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>292</v>
       </c>
@@ -7075,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>292</v>
       </c>
@@ -7095,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>292</v>
       </c>
@@ -7115,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>296</v>
       </c>
@@ -7135,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>298</v>
       </c>
@@ -7155,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>300</v>
       </c>
@@ -7175,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>301</v>
       </c>
@@ -7195,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>303</v>
       </c>
@@ -7215,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>305</v>
       </c>
@@ -7235,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>307</v>
       </c>
@@ -7255,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>307</v>
       </c>
@@ -7275,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>307</v>
       </c>
@@ -7295,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>308</v>
       </c>
@@ -7315,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>309</v>
       </c>
@@ -7335,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>311</v>
       </c>
@@ -7355,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>313</v>
       </c>
@@ -7375,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>313</v>
       </c>
@@ -7395,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>316</v>
       </c>
@@ -7415,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>316</v>
       </c>
@@ -7435,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>319</v>
       </c>
@@ -7455,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>319</v>
       </c>
@@ -7475,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>322</v>
       </c>
@@ -7495,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>322</v>
       </c>
@@ -7515,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>325</v>
       </c>
@@ -7535,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>327</v>
       </c>
@@ -7555,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>329</v>
       </c>
@@ -7575,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>331</v>
       </c>
@@ -7595,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>333</v>
       </c>
@@ -7615,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>335</v>
       </c>
@@ -7635,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>335</v>
       </c>
@@ -7655,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>335</v>
       </c>
@@ -7675,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>335</v>
       </c>
@@ -7695,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>336</v>
       </c>
@@ -7715,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>336</v>
       </c>
@@ -7735,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>336</v>
       </c>
@@ -7755,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>340</v>
       </c>
@@ -7775,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>340</v>
       </c>
@@ -7795,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>340</v>
       </c>
@@ -7815,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>340</v>
       </c>
@@ -7835,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>340</v>
       </c>
@@ -7855,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>340</v>
       </c>
@@ -7875,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>341</v>
       </c>
@@ -7895,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>343</v>
       </c>
@@ -7915,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>345</v>
       </c>
@@ -7935,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>345</v>
       </c>
@@ -7955,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>348</v>
       </c>
@@ -7975,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>348</v>
       </c>
@@ -7995,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>351</v>
       </c>
@@ -8015,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>351</v>
       </c>
@@ -8035,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>354</v>
       </c>
@@ -8055,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>356</v>
       </c>
@@ -8075,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>356</v>
       </c>
@@ -8095,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>359</v>
       </c>
@@ -8115,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>361</v>
       </c>
@@ -8135,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>363</v>
       </c>
@@ -8155,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>365</v>
       </c>
@@ -8175,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>367</v>
       </c>
@@ -8195,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>369</v>
       </c>
@@ -8215,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>370</v>
       </c>
@@ -8235,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>372</v>
       </c>
@@ -8255,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>374</v>
       </c>
@@ -8275,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>376</v>
       </c>
@@ -8295,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>376</v>
       </c>
@@ -8315,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>379</v>
       </c>
@@ -8335,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>381</v>
       </c>
@@ -8355,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>381</v>
       </c>
@@ -8375,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>381</v>
       </c>
@@ -8395,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>385</v>
       </c>
@@ -8415,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>385</v>
       </c>
@@ -8435,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>388</v>
       </c>
@@ -8455,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>390</v>
       </c>
@@ -8475,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>392</v>
       </c>
@@ -8495,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>394</v>
       </c>
@@ -8515,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>396</v>
       </c>
@@ -8535,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>398</v>
       </c>
@@ -8555,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>400</v>
       </c>
@@ -8575,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>402</v>
       </c>
@@ -8595,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>404</v>
       </c>
@@ -8615,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>406</v>
       </c>
@@ -8635,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>407</v>
       </c>
@@ -8655,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>407</v>
       </c>
@@ -8675,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>410</v>
       </c>
@@ -8695,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>412</v>
       </c>
@@ -8715,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>414</v>
       </c>
@@ -8735,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>414</v>
       </c>
@@ -8755,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>417</v>
       </c>
@@ -8775,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>419</v>
       </c>
@@ -8795,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>419</v>
       </c>
@@ -8815,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>420</v>
       </c>
@@ -8835,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>422</v>
       </c>
@@ -8855,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>424</v>
       </c>
@@ -8875,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>425</v>
       </c>
@@ -8895,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>427</v>
       </c>
@@ -8915,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>427</v>
       </c>
@@ -8935,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>428</v>
       </c>
@@ -8955,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>430</v>
       </c>
@@ -8975,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>432</v>
       </c>
@@ -8995,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>432</v>
       </c>
@@ -9015,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>435</v>
       </c>
@@ -9035,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>437</v>
       </c>
@@ -9055,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>439</v>
       </c>
@@ -9075,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>441</v>
       </c>
@@ -9095,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>443</v>
       </c>
@@ -9115,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>445</v>
       </c>
@@ -9135,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>446</v>
       </c>
@@ -9155,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>448</v>
       </c>
@@ -9175,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>448</v>
       </c>
@@ -9195,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>448</v>
       </c>
@@ -9215,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>448</v>
       </c>
@@ -9235,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>449</v>
       </c>
@@ -9255,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>450</v>
       </c>
@@ -9275,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>450</v>
       </c>
@@ -9295,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>453</v>
       </c>
@@ -9315,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>455</v>
       </c>
@@ -9335,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>456</v>
       </c>
@@ -9355,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>458</v>
       </c>
@@ -9375,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>460</v>
       </c>
@@ -9395,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>460</v>
       </c>
@@ -9415,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>463</v>
       </c>
@@ -9435,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>463</v>
       </c>
@@ -9455,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>466</v>
       </c>
@@ -9475,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>468</v>
       </c>
@@ -9495,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>470</v>
       </c>
@@ -9515,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>472</v>
       </c>
@@ -9535,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>474</v>
       </c>
@@ -9555,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>476</v>
       </c>
@@ -9575,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>478</v>
       </c>
@@ -9595,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>479</v>
       </c>
@@ -9615,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>481</v>
       </c>
@@ -9635,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>483</v>
       </c>
@@ -9655,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>483</v>
       </c>
@@ -9675,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>486</v>
       </c>
@@ -9695,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>486</v>
       </c>
@@ -9715,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>489</v>
       </c>
@@ -9735,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>490</v>
       </c>
@@ -9755,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>491</v>
       </c>
@@ -9775,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>493</v>
       </c>
@@ -9795,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>495</v>
       </c>
@@ -9815,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>497</v>
       </c>
@@ -9835,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>499</v>
       </c>
@@ -9855,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>501</v>
       </c>
@@ -9875,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>502</v>
       </c>
@@ -9895,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>502</v>
       </c>
@@ -9915,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>502</v>
       </c>
@@ -9935,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>502</v>
       </c>
@@ -9955,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>502</v>
       </c>
@@ -9975,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>508</v>
       </c>
@@ -9995,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>508</v>
       </c>
@@ -10015,7 +10023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>511</v>
       </c>
@@ -10035,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>511</v>
       </c>
@@ -10055,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>511</v>
       </c>
@@ -10075,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>515</v>
       </c>
@@ -10095,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>516</v>
       </c>
@@ -10115,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>517</v>
       </c>
@@ -10135,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>517</v>
       </c>
@@ -10155,7 +10163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>517</v>
       </c>
@@ -10175,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>517</v>
       </c>
@@ -10195,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>517</v>
       </c>
@@ -10215,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>517</v>
       </c>
@@ -10235,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>518</v>
       </c>
@@ -10255,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>519</v>
       </c>
@@ -10275,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>519</v>
       </c>
@@ -10295,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>520</v>
       </c>
@@ -10315,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>521</v>
       </c>
@@ -10335,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>522</v>
       </c>
@@ -10355,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>523</v>
       </c>
@@ -10375,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>523</v>
       </c>
@@ -10395,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>523</v>
       </c>
@@ -10415,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>523</v>
       </c>
@@ -10435,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>524</v>
       </c>
@@ -10455,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>525</v>
       </c>
@@ -10475,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>527</v>
       </c>
@@ -10495,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>527</v>
       </c>
@@ -10515,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>528</v>
       </c>
@@ -10535,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>528</v>
       </c>
@@ -10555,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>528</v>
       </c>
@@ -10575,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>528</v>
       </c>
@@ -10595,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>528</v>
       </c>
@@ -10615,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>529</v>
       </c>
@@ -10635,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>530</v>
       </c>
@@ -10655,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>531</v>
       </c>
@@ -10675,7 +10683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>531</v>
       </c>
@@ -10695,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>534</v>
       </c>
@@ -10715,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>535</v>
       </c>
@@ -10735,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>536</v>
       </c>
@@ -10755,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>536</v>
       </c>
@@ -10775,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>537</v>
       </c>
@@ -10795,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>538</v>
       </c>
@@ -10815,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>538</v>
       </c>
@@ -10835,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>539</v>
       </c>
@@ -10855,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>540</v>
       </c>
@@ -10875,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>541</v>
       </c>
@@ -10895,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>542</v>
       </c>
@@ -10915,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>543</v>
       </c>
@@ -10935,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>544</v>
       </c>
@@ -10955,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>546</v>
       </c>
@@ -10975,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>547</v>
       </c>
@@ -10995,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>547</v>
       </c>
@@ -11015,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>548</v>
       </c>
@@ -11035,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>549</v>
       </c>
@@ -11055,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>549</v>
       </c>
@@ -11075,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>549</v>
       </c>
@@ -11095,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>550</v>
       </c>
@@ -11115,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>550</v>
       </c>
@@ -11135,7 +11143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>551</v>
       </c>
@@ -11155,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>552</v>
       </c>
@@ -11175,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>552</v>
       </c>
@@ -11195,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>553</v>
       </c>
@@ -11215,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>553</v>
       </c>
@@ -11235,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>554</v>
       </c>
@@ -11255,7 +11263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>555</v>
       </c>
@@ -11275,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>556</v>
       </c>
@@ -11295,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>556</v>
       </c>
@@ -11315,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>556</v>
       </c>
@@ -11335,7 +11343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>556</v>
       </c>
@@ -11355,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>556</v>
       </c>
@@ -11375,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>556</v>
       </c>
@@ -11395,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>557</v>
       </c>
@@ -11415,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>558</v>
       </c>
@@ -11435,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>559</v>
       </c>
@@ -11455,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>559</v>
       </c>
@@ -11475,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>559</v>
       </c>
@@ -11495,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>560</v>
       </c>
@@ -11515,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>561</v>
       </c>
@@ -11535,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>562</v>
       </c>
@@ -11555,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>562</v>
       </c>
@@ -11575,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>563</v>
       </c>
@@ -11595,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>564</v>
       </c>
@@ -11615,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>565</v>
       </c>
@@ -11635,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>565</v>
       </c>
@@ -11655,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>565</v>
       </c>
@@ -11675,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>566</v>
       </c>
@@ -11695,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>567</v>
       </c>
@@ -11715,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>568</v>
       </c>
@@ -11735,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>569</v>
       </c>
@@ -11755,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>569</v>
       </c>
@@ -11775,7 +11783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>569</v>
       </c>
@@ -11795,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>570</v>
       </c>
@@ -11815,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>570</v>
       </c>
@@ -11835,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>571</v>
       </c>
@@ -11855,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>572</v>
       </c>
@@ -11875,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>573</v>
       </c>
@@ -11895,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>574</v>
       </c>
@@ -11915,7 +11923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>574</v>
       </c>
@@ -11935,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>575</v>
       </c>
@@ -11955,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>576</v>
       </c>
@@ -11975,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>577</v>
       </c>
@@ -11995,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>578</v>
       </c>
@@ -12015,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>578</v>
       </c>
@@ -12035,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>581</v>
       </c>
@@ -12055,7 +12063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>582</v>
       </c>
@@ -12075,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>583</v>
       </c>
@@ -12095,7 +12103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>584</v>
       </c>
@@ -12115,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>585</v>
       </c>
@@ -12135,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>587</v>
       </c>
@@ -12155,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>588</v>
       </c>
@@ -12175,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>589</v>
       </c>
@@ -12195,7 +12203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>591</v>
       </c>
@@ -12215,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>592</v>
       </c>
@@ -12235,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>593</v>
       </c>
@@ -12255,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>594</v>
       </c>
@@ -12275,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>595</v>
       </c>
@@ -12295,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>596</v>
       </c>
@@ -12315,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>597</v>
       </c>
@@ -12335,7 +12343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>598</v>
       </c>
@@ -12355,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>598</v>
       </c>
@@ -12375,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>601</v>
       </c>
@@ -12395,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>603</v>
       </c>
@@ -12415,7 +12423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>604</v>
       </c>
@@ -12435,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>605</v>
       </c>
@@ -12455,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>606</v>
       </c>
@@ -12475,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>607</v>
       </c>
@@ -12495,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>608</v>
       </c>
@@ -12515,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>609</v>
       </c>
@@ -12535,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>610</v>
       </c>
@@ -12555,7 +12563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>611</v>
       </c>
@@ -12575,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>612</v>
       </c>
@@ -12595,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>613</v>
       </c>
@@ -12615,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>613</v>
       </c>
@@ -12635,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>614</v>
       </c>
@@ -12655,7 +12663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>615</v>
       </c>
@@ -12675,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>616</v>
       </c>
@@ -12695,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>617</v>
       </c>
@@ -12715,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>618</v>
       </c>
@@ -12735,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>619</v>
       </c>
@@ -12755,7 +12763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>620</v>
       </c>
@@ -12775,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>621</v>
       </c>
@@ -12795,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>622</v>
       </c>
@@ -12815,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>623</v>
       </c>
@@ -12835,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>625</v>
       </c>
@@ -12855,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>626</v>
       </c>
@@ -12875,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>626</v>
       </c>
@@ -12895,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>627</v>
       </c>
@@ -12915,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>628</v>
       </c>
@@ -12935,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>628</v>
       </c>
@@ -12955,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>628</v>
       </c>
@@ -12975,7 +12983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>629</v>
       </c>
@@ -12995,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>630</v>
       </c>
@@ -13015,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>630</v>
       </c>
@@ -13035,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>631</v>
       </c>
@@ -13055,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>632</v>
       </c>
@@ -13075,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>633</v>
       </c>
@@ -13095,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>634</v>
       </c>
@@ -13115,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>635</v>
       </c>
@@ -13135,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>636</v>
       </c>
@@ -13155,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>637</v>
       </c>
@@ -13175,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>638</v>
       </c>
@@ -13195,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>639</v>
       </c>
@@ -13215,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>639</v>
       </c>
@@ -13235,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>639</v>
       </c>
@@ -13255,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>639</v>
       </c>
@@ -13275,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>640</v>
       </c>
@@ -13295,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>641</v>
       </c>
@@ -13315,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>641</v>
       </c>
@@ -13335,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>641</v>
       </c>
@@ -13355,7 +13363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>641</v>
       </c>
@@ -13375,7 +13383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>641</v>
       </c>
@@ -13395,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>642</v>
       </c>
@@ -13415,7 +13423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>643</v>
       </c>
@@ -13435,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>644</v>
       </c>
@@ -13455,7 +13463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>645</v>
       </c>
@@ -13475,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>646</v>
       </c>
@@ -13495,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>647</v>
       </c>
@@ -13515,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>647</v>
       </c>
@@ -13535,7 +13543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>647</v>
       </c>
@@ -13555,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>647</v>
       </c>
@@ -13575,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>647</v>
       </c>
@@ -13595,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>647</v>
       </c>
@@ -13615,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>648</v>
       </c>
@@ -13635,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>649</v>
       </c>
@@ -13655,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>649</v>
       </c>
@@ -13675,7 +13683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>650</v>
       </c>
@@ -13695,7 +13703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>650</v>
       </c>
@@ -13715,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>651</v>
       </c>
@@ -13735,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>652</v>
       </c>
@@ -13755,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>653</v>
       </c>
@@ -13775,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>654</v>
       </c>
@@ -13795,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>654</v>
       </c>
@@ -13815,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>654</v>
       </c>
@@ -13835,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>655</v>
       </c>
@@ -13855,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>655</v>
       </c>
@@ -13875,7 +13883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>656</v>
       </c>
@@ -13895,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>657</v>
       </c>
@@ -13915,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>658</v>
       </c>
@@ -13935,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>659</v>
       </c>
@@ -13955,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>660</v>
       </c>
@@ -13975,7 +13983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>661</v>
       </c>
@@ -13995,7 +14003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>662</v>
       </c>
@@ -14015,7 +14023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>663</v>
       </c>
@@ -14035,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>664</v>
       </c>
@@ -14055,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>665</v>
       </c>
@@ -14075,7 +14083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>665</v>
       </c>
@@ -14095,7 +14103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>666</v>
       </c>
@@ -14115,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>667</v>
       </c>
@@ -14135,7 +14143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>667</v>
       </c>
@@ -14155,7 +14163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>667</v>
       </c>
@@ -14175,7 +14183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>667</v>
       </c>
@@ -14195,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>668</v>
       </c>
@@ -14215,7 +14223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>669</v>
       </c>
@@ -14235,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>670</v>
       </c>
@@ -14255,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>671</v>
       </c>
@@ -14275,7 +14283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>672</v>
       </c>
@@ -14295,7 +14303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>673</v>
       </c>
@@ -14315,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>674</v>
       </c>
@@ -14335,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>675</v>
       </c>
@@ -14355,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>676</v>
       </c>
@@ -14375,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>677</v>
       </c>
@@ -14395,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>678</v>
       </c>
@@ -14415,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>678</v>
       </c>
@@ -14435,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>678</v>
       </c>
@@ -14455,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>678</v>
       </c>
@@ -14475,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>678</v>
       </c>
@@ -14495,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>678</v>
       </c>
@@ -14515,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>679</v>
       </c>
@@ -14535,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>680</v>
       </c>
@@ -14555,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>681</v>
       </c>
@@ -14575,7 +14583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>681</v>
       </c>
@@ -14595,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>682</v>
       </c>
@@ -14615,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>683</v>
       </c>
@@ -14635,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>683</v>
       </c>
@@ -14655,7 +14663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>684</v>
       </c>
@@ -14675,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>685</v>
       </c>
@@ -14695,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>685</v>
       </c>
@@ -14715,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>685</v>
       </c>
@@ -14735,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>686</v>
       </c>
@@ -14755,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>686</v>
       </c>
@@ -14775,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>687</v>
       </c>
@@ -14795,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>688</v>
       </c>
@@ -14815,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>688</v>
       </c>
@@ -14835,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>689</v>
       </c>
@@ -14855,7 +14863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>690</v>
       </c>
@@ -14875,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>691</v>
       </c>
@@ -14895,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>692</v>
       </c>
@@ -14915,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>693</v>
       </c>
@@ -14935,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>693</v>
       </c>
@@ -14955,7 +14963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>694</v>
       </c>
@@ -14975,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>695</v>
       </c>
@@ -14995,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>696</v>
       </c>
@@ -15015,7 +15023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>696</v>
       </c>
@@ -15035,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>696</v>
       </c>
@@ -15055,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>696</v>
       </c>
@@ -15075,7 +15083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>697</v>
       </c>
@@ -15095,7 +15103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>698</v>
       </c>
@@ -15115,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>700</v>
       </c>
@@ -15135,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>701</v>
       </c>
@@ -15155,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>702</v>
       </c>
@@ -15175,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>703</v>
       </c>
@@ -15195,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>703</v>
       </c>
@@ -15215,7 +15223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>703</v>
       </c>
@@ -15235,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>703</v>
       </c>
@@ -15255,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>703</v>
       </c>
@@ -15275,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>708</v>
       </c>
@@ -15295,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>708</v>
       </c>
@@ -15315,7 +15323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>709</v>
       </c>
@@ -15335,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>709</v>
       </c>
@@ -15355,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>710</v>
       </c>
@@ -15375,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>711</v>
       </c>
@@ -15395,7 +15403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>712</v>
       </c>
@@ -15415,7 +15423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>713</v>
       </c>
@@ -15435,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>714</v>
       </c>
@@ -15455,7 +15463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>714</v>
       </c>
@@ -15475,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>714</v>
       </c>
@@ -15495,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>715</v>
       </c>
@@ -15515,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>716</v>
       </c>
@@ -15535,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>717</v>
       </c>
@@ -15555,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>717</v>
       </c>
@@ -15575,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>718</v>
       </c>
@@ -15595,7 +15603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>718</v>
       </c>
@@ -15615,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>719</v>
       </c>
@@ -15635,7 +15643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>720</v>
       </c>
@@ -15655,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>721</v>
       </c>
@@ -15675,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>722</v>
       </c>
@@ -15695,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>723</v>
       </c>
@@ -15715,7 +15723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>723</v>
       </c>
@@ -15735,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>724</v>
       </c>
@@ -15755,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>725</v>
       </c>
@@ -15775,7 +15783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>726</v>
       </c>
@@ -15795,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>727</v>
       </c>
@@ -15815,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>728</v>
       </c>
@@ -15835,7 +15843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>728</v>
       </c>
@@ -15855,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>729</v>
       </c>
@@ -15875,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>729</v>
       </c>
@@ -15895,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>732</v>
       </c>
@@ -15915,7 +15923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>732</v>
       </c>
@@ -15935,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>733</v>
       </c>
@@ -15955,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>734</v>
       </c>
@@ -15975,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>734</v>
       </c>
@@ -15995,7 +16003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>734</v>
       </c>
@@ -16015,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>735</v>
       </c>
@@ -16035,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>735</v>
       </c>
@@ -16055,7 +16063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>735</v>
       </c>
@@ -16075,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>735</v>
       </c>
@@ -16095,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>735</v>
       </c>
@@ -16115,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>735</v>
       </c>
@@ -16135,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>736</v>
       </c>
@@ -16155,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>736</v>
       </c>
@@ -16175,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>737</v>
       </c>
@@ -16195,7 +16203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>737</v>
       </c>
@@ -16215,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>737</v>
       </c>
@@ -16235,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>738</v>
       </c>
@@ -16255,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>738</v>
       </c>
@@ -16275,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>739</v>
       </c>
@@ -16295,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>740</v>
       </c>
@@ -16315,7 +16323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>741</v>
       </c>
@@ -16335,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>741</v>
       </c>
@@ -16355,7 +16363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>742</v>
       </c>
@@ -16375,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>742</v>
       </c>
@@ -16395,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>742</v>
       </c>
@@ -16415,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>743</v>
       </c>
@@ -16435,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>744</v>
       </c>
@@ -16455,7 +16463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>745</v>
       </c>
@@ -16475,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>746</v>
       </c>
@@ -16495,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>747</v>
       </c>
@@ -16515,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>747</v>
       </c>
@@ -16535,7 +16543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>748</v>
       </c>
@@ -16555,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>748</v>
       </c>
@@ -16575,7 +16583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>748</v>
       </c>
@@ -16595,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>749</v>
       </c>
@@ -16615,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>749</v>
       </c>
@@ -16635,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>750</v>
       </c>
@@ -16655,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>750</v>
       </c>
@@ -16675,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>750</v>
       </c>
@@ -16695,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>751</v>
       </c>
@@ -16715,7 +16723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>752</v>
       </c>
@@ -16735,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>753</v>
       </c>
@@ -16755,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>753</v>
       </c>
@@ -16775,7 +16783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>754</v>
       </c>
@@ -16795,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>755</v>
       </c>
@@ -16815,7 +16823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>755</v>
       </c>
@@ -16835,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>756</v>
       </c>
@@ -16855,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>757</v>
       </c>
@@ -16875,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>758</v>
       </c>
@@ -16895,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>759</v>
       </c>
@@ -16915,7 +16923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>760</v>
       </c>
@@ -16935,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>761</v>
       </c>
@@ -16955,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>762</v>
       </c>
@@ -16975,7 +16983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>763</v>
       </c>
@@ -16995,7 +17003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>763</v>
       </c>
@@ -17015,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>763</v>
       </c>
@@ -17035,7 +17043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>763</v>
       </c>
@@ -17055,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>764</v>
       </c>
@@ -17075,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>765</v>
       </c>
@@ -17095,7 +17103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>765</v>
       </c>
@@ -17115,7 +17123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>765</v>
       </c>
@@ -17135,7 +17143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>765</v>
       </c>
@@ -17155,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>765</v>
       </c>
@@ -17175,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>766</v>
       </c>
@@ -17195,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>767</v>
       </c>
@@ -17215,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>768</v>
       </c>
@@ -17235,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>769</v>
       </c>
@@ -17255,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>769</v>
       </c>
@@ -17275,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>769</v>
       </c>
@@ -17295,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>770</v>
       </c>
@@ -17315,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>771</v>
       </c>
@@ -17335,7 +17343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>772</v>
       </c>
@@ -17355,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>773</v>
       </c>
@@ -17375,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>774</v>
       </c>
@@ -17395,7 +17403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>775</v>
       </c>
@@ -17415,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>776</v>
       </c>
@@ -17435,7 +17443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>777</v>
       </c>
@@ -17455,7 +17463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>777</v>
       </c>
@@ -17475,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>777</v>
       </c>
@@ -17495,7 +17503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>777</v>
       </c>
@@ -17515,7 +17523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>777</v>
       </c>
@@ -17535,7 +17543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>777</v>
       </c>
@@ -17555,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>778</v>
       </c>
@@ -17575,7 +17583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>779</v>
       </c>
@@ -17595,7 +17603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>779</v>
       </c>
@@ -17615,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>780</v>
       </c>
@@ -17635,7 +17643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>780</v>
       </c>
@@ -17655,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>780</v>
       </c>
@@ -17675,7 +17683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>780</v>
       </c>
@@ -17695,7 +17703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>781</v>
       </c>
@@ -17715,7 +17723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>782</v>
       </c>
@@ -17735,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>783</v>
       </c>
@@ -17755,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>784</v>
       </c>
@@ -17775,7 +17783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>784</v>
       </c>
@@ -17795,7 +17803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>784</v>
       </c>
@@ -17815,7 +17823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>784</v>
       </c>
@@ -17835,7 +17843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>784</v>
       </c>
@@ -17855,7 +17863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>790</v>
       </c>
@@ -17875,7 +17883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>790</v>
       </c>
@@ -17895,7 +17903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>793</v>
       </c>
@@ -17915,7 +17923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>793</v>
       </c>
@@ -17935,7 +17943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>796</v>
       </c>
@@ -17955,7 +17963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>798</v>
       </c>
@@ -17975,7 +17983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>798</v>
       </c>
@@ -17995,7 +18003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>798</v>
       </c>
@@ -18015,7 +18023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>802</v>
       </c>
@@ -18035,7 +18043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>802</v>
       </c>
@@ -18055,7 +18063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>802</v>
       </c>
@@ -18075,7 +18083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>802</v>
       </c>
@@ -18095,7 +18103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>807</v>
       </c>
@@ -18115,7 +18123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>807</v>
       </c>
@@ -18135,7 +18143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>810</v>
       </c>
@@ -18155,7 +18163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>810</v>
       </c>
@@ -18175,7 +18183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>813</v>
       </c>
@@ -18195,7 +18203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>815</v>
       </c>
@@ -18215,7 +18223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>817</v>
       </c>
@@ -18235,7 +18243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>819</v>
       </c>
@@ -18255,7 +18263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>821</v>
       </c>
@@ -18275,7 +18283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>823</v>
       </c>
@@ -18295,7 +18303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>825</v>
       </c>
@@ -18315,7 +18323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>827</v>
       </c>
@@ -18335,7 +18343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>829</v>
       </c>
@@ -18355,7 +18363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>831</v>
       </c>
@@ -18375,7 +18383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>833</v>
       </c>
@@ -18395,7 +18403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>835</v>
       </c>
@@ -18415,7 +18423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>836</v>
       </c>
@@ -18435,7 +18443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>836</v>
       </c>
@@ -18455,7 +18463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>836</v>
       </c>
@@ -18475,7 +18483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>836</v>
       </c>
@@ -18495,7 +18503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>836</v>
       </c>
@@ -18515,7 +18523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>836</v>
       </c>
@@ -18535,7 +18543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>843</v>
       </c>
@@ -18555,7 +18563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>843</v>
       </c>
@@ -18575,7 +18583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>843</v>
       </c>
@@ -18595,7 +18603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>843</v>
       </c>
@@ -18615,7 +18623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>843</v>
       </c>
@@ -18635,7 +18643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>849</v>
       </c>
@@ -18655,7 +18663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>849</v>
       </c>
@@ -18675,7 +18683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>849</v>
       </c>
@@ -18695,7 +18703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>853</v>
       </c>
@@ -18715,7 +18723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>855</v>
       </c>
@@ -18735,7 +18743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>855</v>
       </c>
@@ -18755,7 +18763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>856</v>
       </c>
@@ -18775,7 +18783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>856</v>
       </c>
@@ -18795,7 +18803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>856</v>
       </c>
@@ -18815,7 +18823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>856</v>
       </c>
@@ -18835,7 +18843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>856</v>
       </c>
@@ -18855,7 +18863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>856</v>
       </c>
@@ -18875,7 +18883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>857</v>
       </c>
@@ -18895,7 +18903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>857</v>
       </c>
@@ -18915,7 +18923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>857</v>
       </c>
@@ -18935,7 +18943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>857</v>
       </c>
@@ -18955,7 +18963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>857</v>
       </c>
@@ -18975,7 +18983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>857</v>
       </c>
@@ -18995,7 +19003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>864</v>
       </c>
@@ -19015,7 +19023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>864</v>
       </c>
@@ -19035,7 +19043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>864</v>
       </c>
@@ -19055,7 +19063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>868</v>
       </c>
@@ -19075,7 +19083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>868</v>
       </c>
@@ -19095,7 +19103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>871</v>
       </c>
@@ -19115,7 +19123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>873</v>
       </c>
@@ -19135,7 +19143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>875</v>
       </c>
@@ -19155,7 +19163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>877</v>
       </c>
@@ -19175,7 +19183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>877</v>
       </c>
@@ -19195,7 +19203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>880</v>
       </c>
@@ -19215,7 +19223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>880</v>
       </c>
@@ -19235,7 +19243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>883</v>
       </c>
@@ -19255,7 +19263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>883</v>
       </c>
@@ -19275,7 +19283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>886</v>
       </c>
@@ -19295,7 +19303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>888</v>
       </c>
@@ -19315,7 +19323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>890</v>
       </c>
@@ -19335,7 +19343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>890</v>
       </c>
@@ -19355,7 +19363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>893</v>
       </c>
